--- a/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 13,18</t>
+          <t>-14,34; 19,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 23,93</t>
+          <t>-4,46; 13,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 16,42</t>
+          <t>3,79; 15,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 35,81</t>
+          <t>-25,73; 55,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 37,48</t>
+          <t>-5,05; 16,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 21,4</t>
+          <t>4,44; 19,99</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>-3,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 7,64</t>
+          <t>-10,42; 7,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 18,51</t>
+          <t>0,72; 14,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,28</t>
+          <t>3,38; 13,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 21,15</t>
+          <t>-23,52; 24,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 27,09</t>
+          <t>0,88; 19,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 17,37</t>
+          <t>4,11; 18,19</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,73%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 23,82</t>
+          <t>7,91; 25,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 18,48</t>
+          <t>-0,38; 15,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 19,12</t>
+          <t>7,73; 19,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,26; 98,25</t>
+          <t>28,35; 136,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 30,0</t>
+          <t>-0,62; 24,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 28,62</t>
+          <t>10,35; 30,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>14,19%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,67</t>
+          <t>3,21; 14,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 16,42</t>
+          <t>9,91; 21,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,67</t>
+          <t>4,47; 17,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 31,42</t>
+          <t>7,72; 42,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 23,9</t>
+          <t>13,14; 33,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 18,24</t>
+          <t>5,5; 23,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 10,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 14,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 13,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 32,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 20,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 17,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,34</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.602776303645981</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.615420308176544</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.172962784700733</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.03435954166060209</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.0677069850621886</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1101085709536669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; 19,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 13,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 15,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,73; 55,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 16,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 19,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.3433770851463</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.444753330234019</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.439676079771488</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2573364179967571</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.02953590828601327</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.04098928899161388</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.78890797263026</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.35811500026409</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.22109814542694</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5595948633449286</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1997393053821739</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1952460030547356</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,03%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 7,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 14,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 13,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,52; 24,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 19,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 18,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.181462993312288</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.901733715343651</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.63501627621217</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.03028424725045868</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1011779650923548</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1098443790213608</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>73,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.42346459809832</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.139776425300689</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.438950009848062</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2351812269586845</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.02704506903131248</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04261825526240954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 25,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 15,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,73; 19,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>28,35; 136,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 24,5</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,35; 30,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.792414721910652</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.26838153189521</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.82732887466085</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2434311394754764</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2215132890759054</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1874406155333115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>22,24%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>21,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>14,19%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.3307236672123</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.691238504594455</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>14.08235696067014</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.7377763291346687</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1109898364170211</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2011831534570223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 14,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,91; 21,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 17,28</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 42,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>13,14; 33,02</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 23,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.907274040357171</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1577317962183552</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>8.002476656314522</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.2834687198769738</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.00778534826262077</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.1136218069112899</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>25.6885409200704</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.33721659030951</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.14746867776914</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.360169285694735</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2554029774925171</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3110649827194086</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 10,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 14,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 13,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 32,06</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>9,06; 20,3</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9,55; 17,84</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.560760672527188</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.626556185194467</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.64619096054772</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1595857230617335</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1008142911134603</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1388035977037734</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.2684257113848219</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.047910577333961</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7.193799380608294</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.006854802991750908</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03870524345987066</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.09221177705276097</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.37702308220102</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.39545342237803</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.16732907773932</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3663494525809217</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.172830257907643</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1904287125173552</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
